--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2907.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2907.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.147670340530623</v>
+        <v>1.526893019676208</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>2.086515188217163</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.227139711380005</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>4.830220222473145</v>
       </c>
       <c r="E1">
-        <v>1.136841580890771</v>
+        <v>0.8482956290245056</v>
       </c>
     </row>
   </sheetData>
